--- a/biology/Botanique/Calypso_bulbeux/Calypso_bulbeux.xlsx
+++ b/biology/Botanique/Calypso_bulbeux/Calypso_bulbeux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Calypso bulbeux (Calypso bulbosa) est une orchidée, c'est-à-dire une plante de la famille des Orchidaceae, des régions boréales de l'hémisphère nord. C'est la seule espèce du genre Calypso. L'espèce compte quatre variétés autour du globe.
 Calypso bulbosa var. americana, présente dans les zones boréales de l'est et du centre de l'Amérique du Nord;
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante au rhizome peu développé, elle produit un pseudobulbe d'où émerge une feuille unique, pétiolée, ovale et plissée. La hampe florale porte une fleur unique. Les sépales et pétales sont rose pourpre, lancéolés et écartés. Le labelle rose ou blanc est en forme de sabot, avec une pilosité jaune abondante sur le rebord central et strié de pourpre à l'intérieur. Le gynostème rose est très élargi. Le labelle se prolonge vers l'arrière par un petit éperon à deux branches.
 </t>
@@ -546,7 +560,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mai-juin (précoce pour la latitude)
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante d'ombre, sur substrats calcaires et quelquefois acides, humides à détrempés (forêts d'épicéas humides / taïga).
 </t>
@@ -608,7 +626,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Distribution circumboréale.
 </t>
